--- a/code/data/numbers/w0wacdm-free.xlsx
+++ b/code/data/numbers/w0wacdm-free.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/852b2bada49559ee/code_final/data/numbers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_085D37EF124C0C0F6235547658B6E63C80719F90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74B53406-61F8-4794-96D5-702D105CE16A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_085D37EF124C0C0F6235547658B6E63C80719F90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33A53C86-09AD-4109-8A81-B52C5F3403BF}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,11 +474,12 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="25.765625" customWidth="1"/>
     <col min="2" max="3" width="9.23046875" style="5"/>
     <col min="4" max="4" width="9.23046875" style="6"/>
     <col min="5" max="6" width="9.23046875" style="5"/>
